--- a/Stocks/DRREDDY.xlsx
+++ b/Stocks/DRREDDY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>2588.5833333333335</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>2424.8121094185603</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>2489.2848847935106</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>20.064245433222521</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>7.5999999999999091</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>67.5</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.11259259259259125</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>DOWN</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>2609.9867807548367</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-56.527390483363888</v>
       </c>
       <c r="Y67">
         <v>-14.564944838475455</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>DOWN</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>DOWN</v>
       </c>
       <c r="AD67">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>2432.2000000000003</v>
       </c>
       <c r="AE67">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>2414.1</v>
       </c>
       <c r="AF67">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>2406.15</v>
       </c>
       <c r="AG67">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>2398.2000000000003</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>2084</v>
+      </c>
+      <c r="D83">
+        <v>2089.75</v>
+      </c>
+      <c r="E83">
+        <v>2027.1</v>
+      </c>
+      <c r="F83">
+        <v>2050</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>2055.6166666666668</v>
+      </c>
+      <c r="H83">
+        <v>2043.6205774247655</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>2072.4071796717835</v>
+      </c>
+      <c r="K83">
+        <v>2000.7013330176362</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>52.895040865946051</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>22.900000000000091</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>62.650000000000091</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.36552274541101448</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>2064.1477463095689</v>
+      </c>
+      <c r="W83">
+        <v>2205.0700475587341</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-140.92230124916523</v>
+      </c>
+      <c r="Y83">
+        <v>-154.8292426276989</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>2049</v>
+      </c>
+      <c r="D84">
+        <v>2067.5</v>
+      </c>
+      <c r="E84">
+        <v>2032</v>
+      </c>
+      <c r="F84">
+        <v>2037.15</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>2045.55</v>
+      </c>
+      <c r="H84">
+        <v>2044.5852887123829</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>2071.316695300276</v>
+      </c>
+      <c r="K84">
+        <v>2007.6565923470505</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>49.133062098215355</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>5.1500000000000909</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>35.5</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.14507042253521382</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>2059.9942468773274</v>
+      </c>
+      <c r="W84">
+        <v>2192.6315255173463</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-132.63727864001885</v>
+      </c>
+      <c r="Y84">
+        <v>-150.39084983016289</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>2047</v>
+      </c>
+      <c r="D85">
+        <v>2074.4</v>
+      </c>
+      <c r="E85">
+        <v>2031.4</v>
+      </c>
+      <c r="F85">
+        <v>2033</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>2046.2666666666667</v>
+      </c>
+      <c r="H85">
+        <v>2045.4259776895246</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>2072.0018741224371</v>
+      </c>
+      <c r="K85">
+        <v>2012.932905158817</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>47.761749113925383</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>1.5999999999999091</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>43</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>3.7209302325579278E-2</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>2055.8412858192769</v>
+      </c>
+      <c r="W85">
+        <v>2180.8069680716171</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-124.96568225234023</v>
+      </c>
+      <c r="Y85">
+        <v>-145.30581631459836</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>2044</v>
+      </c>
+      <c r="D86">
+        <v>2051.6999999999998</v>
+      </c>
+      <c r="E86">
+        <v>2006</v>
+      </c>
+      <c r="F86">
+        <v>2017.55</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>2025.0833333333333</v>
+      </c>
+      <c r="H86">
+        <v>2035.2546555114291</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>2067.4903465396733</v>
+      </c>
+      <c r="K86">
+        <v>2011.3922595679687</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>42.271401927269707</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>11.549999999999955</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>45.699999999999818</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.2527352297592998</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>2049.9503187701575</v>
+      </c>
+      <c r="W86">
+        <v>2168.7138593255713</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-118.76354055541378</v>
+      </c>
+      <c r="Y86">
+        <v>-139.99736116276145</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>2115</v>
+      </c>
+      <c r="D87">
+        <v>2233</v>
+      </c>
+      <c r="E87">
+        <v>2115</v>
+      </c>
+      <c r="F87">
+        <v>2212</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>2186.6666666666665</v>
+      </c>
+      <c r="H87">
+        <v>2110.9606610890478</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>2104.2702695308571</v>
+      </c>
+      <c r="K87">
+        <v>2034.416201886198</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>79.444754479635407</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>97</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>118</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.82203389830508478</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>2074.8810389593641</v>
+      </c>
+      <c r="W87">
+        <v>2171.9202401162697</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-97.039201156905619</v>
+      </c>
+      <c r="Y87">
+        <v>-131.40572916159027</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD87">
+        <f t="shared" si="35"/>
+        <v>2128.4500000000003</v>
+      </c>
+      <c r="AE87">
+        <f t="shared" si="36"/>
+        <v>2160.1</v>
+      </c>
+      <c r="AF87">
+        <f t="shared" si="37"/>
+        <v>2174</v>
+      </c>
+      <c r="AG87">
+        <f t="shared" si="38"/>
+        <v>2187.9</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>2234</v>
+      </c>
+      <c r="D88">
+        <v>2236.4</v>
+      </c>
+      <c r="E88">
+        <v>2173.25</v>
+      </c>
+      <c r="F88">
+        <v>2181.9</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>2197.1833333333329</v>
+      </c>
+      <c r="H88">
+        <v>2154.0719972111901</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>2133.6324318573334</v>
+      </c>
+      <c r="K88">
+        <v>2065.2681570225986</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>70.642834832302086</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>8.6500000000000909</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>63.150000000000091</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.13697545526524274</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>2091.3454945040771</v>
+      </c>
+      <c r="W88">
+        <v>2172.6594815891385</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-81.313987085061399</v>
+      </c>
+      <c r="Y88">
+        <v>-121.38738074628449</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>2198.3000000000002</v>
+      </c>
+      <c r="D89">
+        <v>2218.35</v>
+      </c>
+      <c r="E89">
+        <v>2181.9</v>
+      </c>
+      <c r="F89">
+        <v>2203</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>2201.0833333333335</v>
+      </c>
+      <c r="H89">
+        <v>2177.5776652722616</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>2152.4585581112592</v>
+      </c>
+      <c r="K89">
+        <v>2091.1863443509101</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>73.240679753069159</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>21.099999999999909</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>36.449999999999818</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.57887517146776446</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>2108.5231107342192</v>
+      </c>
+      <c r="W89">
+        <v>2174.9069273973505</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-66.383816663131256</v>
+      </c>
+      <c r="Y89">
+        <v>-110.38666792965384</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>2185.35</v>
+      </c>
+      <c r="D90">
+        <v>2208</v>
+      </c>
+      <c r="E90">
+        <v>2175.75</v>
+      </c>
+      <c r="F90">
+        <v>2191.35</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>2191.7000000000003</v>
+      </c>
+      <c r="H90">
+        <v>2184.6388326361312</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>2164.8011007532018</v>
+      </c>
+      <c r="K90">
+        <v>2109.9782678284855</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>69.025078744553397</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>15.599999999999909</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>32.25</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.4837209302325553</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>2121.2657090828011</v>
+      </c>
+      <c r="W90">
+        <v>2176.1249327753244</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-54.859223692523301</v>
+      </c>
+      <c r="Y90">
+        <v>-99.281179082227737</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>2204</v>
+      </c>
+      <c r="D91">
+        <v>2235</v>
+      </c>
+      <c r="E91">
+        <v>2201</v>
+      </c>
+      <c r="F91">
+        <v>2215</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>2217</v>
+      </c>
+      <c r="H91">
+        <v>2200.8194163180656</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>2180.4008561413793</v>
+      </c>
+      <c r="K91">
+        <v>2130.2053194221553</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>72.972617116113511</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>34</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>2135.6863692239085</v>
+      </c>
+      <c r="W91">
+        <v>2179.0045673845598</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-43.318198160651264</v>
+      </c>
+      <c r="Y91">
+        <v>-88.088582897912445</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>2229</v>
+      </c>
+      <c r="D92">
+        <v>2229</v>
+      </c>
+      <c r="E92">
+        <v>2066.15</v>
+      </c>
+      <c r="F92">
+        <v>2161</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>2152.0499999999997</v>
+      </c>
+      <c r="H92">
+        <v>2176.4347081590327</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>2191.2006658877394</v>
+      </c>
+      <c r="K92">
+        <v>2115.9708039950096</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>53.509260960794812</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>94.849999999999909</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>162.84999999999991</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.58243782622044804</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>2139.5807739586917</v>
+      </c>
+      <c r="W92">
+        <v>2177.6708957264441</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-38.090121767752407</v>
+      </c>
+      <c r="Y92">
+        <v>-78.088890671880435</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>2169</v>
+      </c>
+      <c r="D93">
+        <v>2198</v>
+      </c>
+      <c r="E93">
+        <v>2154</v>
+      </c>
+      <c r="F93">
+        <v>2155.9499999999998</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>2169.3166666666666</v>
+      </c>
+      <c r="H93">
+        <v>2172.8756874128494</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>2192.7116290237973</v>
+      </c>
+      <c r="K93">
+        <v>2124.4217364405631</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>51.891329078382896</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>1.9499999999998181</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>44</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>4.4318181818177683E-2</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>2142.0991164265852</v>
+      </c>
+      <c r="W93">
+        <v>2176.0619404874483</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-33.962824060863113</v>
+      </c>
+      <c r="Y93">
+        <v>-69.263677349676968</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>2165</v>
+      </c>
+      <c r="D94">
+        <v>2197.4</v>
+      </c>
+      <c r="E94">
+        <v>2135.4</v>
+      </c>
+      <c r="F94">
+        <v>2162.15</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>2164.9833333333336</v>
+      </c>
+      <c r="H94">
+        <v>2168.9295103730915</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>2193.7534892407311</v>
+      </c>
+      <c r="K94">
+        <v>2126.8613505648823</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>54.024699085961537</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>26.75</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>62</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.43145161290322581</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>2145.1838677455721</v>
+      </c>
+      <c r="W94">
+        <v>2175.0314263772671</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-29.847558631694938</v>
+      </c>
+      <c r="Y94">
+        <v>-61.380453606080565</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>2187</v>
+      </c>
+      <c r="D95">
+        <v>2228</v>
+      </c>
+      <c r="E95">
+        <v>2169.15</v>
+      </c>
+      <c r="F95">
+        <v>2223.9499999999998</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>2207.0333333333333</v>
+      </c>
+      <c r="H95">
+        <v>2187.9814218532124</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>2201.363824965013</v>
+      </c>
+      <c r="K95">
+        <v>2136.2588282171305</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>70.386700449028368</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>54.799999999999727</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>58.849999999999909</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.9311809685641429</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V95">
+        <v>2157.3017342462531</v>
+      </c>
+      <c r="W95">
+        <v>2178.6550244233954</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-21.353290177142298</v>
+      </c>
+      <c r="Y95">
+        <v>-53.375020920292911</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>2234</v>
+      </c>
+      <c r="D96">
+        <v>2264.9499999999998</v>
+      </c>
+      <c r="E96">
+        <v>2230</v>
+      </c>
+      <c r="F96">
+        <v>2257.75</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>2250.9</v>
+      </c>
+      <c r="H96">
+        <v>2219.4407109266062</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>2215.4940860838988</v>
+      </c>
+      <c r="K96">
+        <v>2157.090199724435</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>76.181779813096455</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>27.75</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>34.949999999999818</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.79399141630901704</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>2172.7553135929834</v>
+      </c>
+      <c r="W96">
+        <v>2184.5139115031438</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-11.758597910160461</v>
+      </c>
+      <c r="Y96">
+        <v>-45.051736318266421</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>2225.1999999999998</v>
+      </c>
+      <c r="D97">
+        <v>2245</v>
+      </c>
+      <c r="E97">
+        <v>2201.1</v>
+      </c>
+      <c r="F97">
+        <v>2208.3000000000002</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>2218.1333333333337</v>
+      </c>
+      <c r="H97">
+        <v>2218.78702212997</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>2222.0509558430322</v>
+      </c>
+      <c r="K97">
+        <v>2166.870155341227</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>56.103648101488133</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>7.2000000000002728</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>43.900000000000091</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.16400911161731796</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>2178.2237268863705</v>
+      </c>
+      <c r="W97">
+        <v>2186.2758439843924</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-8.0521170980218812</v>
+      </c>
+      <c r="Y97">
+        <v>-37.651812474217515</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>2204</v>
+      </c>
+      <c r="D98">
+        <v>2258.5500000000002</v>
+      </c>
+      <c r="E98">
+        <v>2175.6</v>
+      </c>
+      <c r="F98">
+        <v>2255</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>2229.7166666666667</v>
+      </c>
+      <c r="H98">
+        <v>2224.2518443983181</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>2230.1618545445808</v>
+      </c>
+      <c r="K98">
+        <v>2168.8101208209541</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>66.520047337518164</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>79.400000000000091</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>82.950000000000273</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.95720313441832228</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V98">
+        <v>2190.0354612115443</v>
+      </c>
+      <c r="W98">
+        <v>2191.3665222077707</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-1.3310609962263698</v>
+      </c>
+      <c r="Y98">
+        <v>-30.387662178619287</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>2232</v>
+      </c>
+      <c r="D99">
+        <v>2265</v>
+      </c>
+      <c r="E99">
+        <v>2200</v>
+      </c>
+      <c r="F99">
+        <v>2240.3000000000002</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>2235.1</v>
+      </c>
+      <c r="H99">
+        <v>2229.6759221991588</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>2237.9036646457853</v>
+      </c>
+      <c r="K99">
+        <v>2175.7412050829644</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>60.839558517904301</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>40.300000000000182</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>65</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.62000000000000277</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>2197.7684671789989</v>
+      </c>
+      <c r="W99">
+        <v>2194.9912242664545</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>2.7772429125443523</v>
+      </c>
+      <c r="Y99">
+        <v>-23.754681160386561</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>2250</v>
+      </c>
+      <c r="D100">
+        <v>2329</v>
+      </c>
+      <c r="E100">
+        <v>2240</v>
+      </c>
+      <c r="F100">
+        <v>2325</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>2298</v>
+      </c>
+      <c r="H100">
+        <v>2263.8379610995794</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>2258.1472947244997</v>
+      </c>
+      <c r="K100">
+        <v>2190.0209372867503</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>75.752774334162083</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>85</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>89</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.9550561797752809</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V100">
+        <v>2217.3425491514604</v>
+      </c>
+      <c r="W100">
+        <v>2204.6215039504209</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>12.721045201039487</v>
+      </c>
+      <c r="Y100">
+        <v>-16.45953588810135</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD100">
+        <f t="shared" si="35"/>
+        <v>2250.15</v>
+      </c>
+      <c r="AE100">
+        <f t="shared" si="36"/>
+        <v>2274</v>
+      </c>
+      <c r="AF100">
+        <f t="shared" si="37"/>
+        <v>2284.5</v>
+      </c>
+      <c r="AG100">
+        <f t="shared" si="38"/>
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>2346.25</v>
+      </c>
+      <c r="D101">
+        <v>2500</v>
+      </c>
+      <c r="E101">
+        <v>2346.25</v>
+      </c>
+      <c r="F101">
+        <v>2490</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>2445.4166666666665</v>
+      </c>
+      <c r="H101">
+        <v>2354.627313883123</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>2311.8923403412778</v>
+      </c>
+      <c r="K101">
+        <v>2224.7385067785835</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>87.419265655163926</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>143.75</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>153.75</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.93495934959349591</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V101">
+        <v>2259.289849282005</v>
+      </c>
+      <c r="W101">
+        <v>2225.7606518059451</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>33.529197476059835</v>
+      </c>
+      <c r="Y101">
+        <v>-6.4617892152691123</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD101">
+        <f t="shared" si="35"/>
+        <v>2363.8000000000002</v>
+      </c>
+      <c r="AE101">
+        <f t="shared" si="36"/>
+        <v>2405</v>
+      </c>
+      <c r="AF101">
+        <f t="shared" si="37"/>
+        <v>2423.15</v>
+      </c>
+      <c r="AG101">
+        <f t="shared" si="38"/>
+        <v>2441.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>2494</v>
+      </c>
+      <c r="D102">
+        <v>2526.75</v>
+      </c>
+      <c r="E102">
+        <v>2446.5500000000002</v>
+      </c>
+      <c r="F102">
+        <v>2461</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>2478.1</v>
+      </c>
+      <c r="H102">
+        <v>2416.3636569415612</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J102">
+        <v>2359.638486932105</v>
+      </c>
+      <c r="K102">
+        <v>2274.0299497166761</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N102">
+        <v>79.06189795383186</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>14.449999999999818</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>80.199999999999818</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.18017456359102058</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>2290.3221801616965</v>
+      </c>
+      <c r="W102">
+        <v>2243.1857887092083</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>47.136391452488169</v>
+      </c>
+      <c r="Y102">
+        <v>4.2578469182823451</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>2464</v>
+      </c>
+      <c r="D103">
+        <v>2475</v>
+      </c>
+      <c r="E103">
+        <v>2405</v>
+      </c>
+      <c r="F103">
+        <v>2428.1999999999998</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>2436.0666666666666</v>
+      </c>
+      <c r="H103">
+        <v>2426.2151618041139</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J103">
+        <v>2385.2743787249706</v>
+      </c>
+      <c r="K103">
+        <v>2303.1344053351927</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N103">
+        <v>69.648241004054071</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>23.199999999999818</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>70</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.33142857142856885</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>2311.5341524445125</v>
+      </c>
+      <c r="W103">
+        <v>2256.8905451011187</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>54.643607343393796</v>
+      </c>
+      <c r="Y103">
+        <v>14.334999003304636</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>2414</v>
+      </c>
+      <c r="D104">
+        <v>2415</v>
+      </c>
+      <c r="E104">
+        <v>2322.65</v>
+      </c>
+      <c r="F104">
+        <v>2369.9499999999998</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>2369.1999999999998</v>
+      </c>
+      <c r="H104">
+        <v>2397.7075809020571</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>2391.8800723416439</v>
+      </c>
+      <c r="K104">
+        <v>2307.4712041495945</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>55.087690464615513</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>47.299999999999727</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>92.349999999999909</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.512181916621546</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>2320.5212059145874</v>
+      </c>
+      <c r="W104">
+        <v>2265.2653195380731</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>55.255886376514354</v>
+      </c>
+      <c r="Y104">
+        <v>22.51917647794658</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>2360</v>
+      </c>
+      <c r="D105">
+        <v>2384</v>
+      </c>
+      <c r="E105">
+        <v>2281.1</v>
+      </c>
+      <c r="F105">
+        <v>2311.5</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>2325.5333333333333</v>
+      </c>
+      <c r="H105">
+        <v>2361.620457117695</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>2390.1289451546118</v>
+      </c>
+      <c r="K105">
+        <v>2301.6109365607958</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N105">
+        <v>43.643484616863056</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>30.400000000000091</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>102.90000000000009</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.29543245869776547</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>2319.1333280815738</v>
+      </c>
+      <c r="W105">
+        <v>2268.6901106834011</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>50.443217398172692</v>
+      </c>
+      <c r="Y105">
+        <v>28.103984661991802</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>2300</v>
+      </c>
+      <c r="D106">
+        <v>2415</v>
+      </c>
+      <c r="E106">
+        <v>2272.1999999999998</v>
+      </c>
+      <c r="F106">
+        <v>2381.35</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>2356.1833333333329</v>
+      </c>
+      <c r="H106">
+        <v>2358.9018952255137</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>2395.6558462313646</v>
+      </c>
+      <c r="K106">
+        <v>2295.075172880619</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>56.990575909869847</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>109.15000000000009</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>142.80000000000018</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.76435574229691838</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>2328.7051237613318</v>
+      </c>
+      <c r="W106">
+        <v>2277.0352876698157</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>51.669836091516117</v>
+      </c>
+      <c r="Y106">
+        <v>32.817154947896668</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>2375.4</v>
+      </c>
+      <c r="D107">
+        <v>2390.6999999999998</v>
+      </c>
+      <c r="E107">
+        <v>2320.1</v>
+      </c>
+      <c r="F107">
+        <v>2330.5</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>2347.1</v>
+      </c>
+      <c r="H107">
+        <v>2353.000947612757</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>2394.5545470688389</v>
+      </c>
+      <c r="K107">
+        <v>2300.6362455738149</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>46.885958825152123</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>10.400000000000091</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>70.599999999999909</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.14730878186968988</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>2328.9812585672807</v>
+      </c>
+      <c r="W107">
+        <v>2280.9956367313107</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>47.985621835970051</v>
+      </c>
+      <c r="Y107">
+        <v>35.850848325511343</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
